--- a/files/Avon.xlsx
+++ b/files/Avon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>Titulo</t>
   </si>
@@ -37,79 +37,352 @@
     <t>URL</t>
   </si>
   <si>
-    <t>¿Te imaginas ahorrar cuando viajas? Muy pronto disponible en tu ciudad #Ecuador</t>
-  </si>
-  <si>
-    <t>0:0:21</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
-  </si>
-  <si>
-    <t>Go Machin Tech</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DOiR8d9_sLQ</t>
-  </si>
-  <si>
-    <t>Recoger pasajeros con la aplicación Gomachin</t>
-  </si>
-  <si>
-    <t>0:1:17</t>
-  </si>
-  <si>
-    <t>12/03/2021</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JpPR3zQvfDo</t>
-  </si>
-  <si>
-    <t>Seguridad con la app de Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:42</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9g_gcZ5Itdc</t>
-  </si>
-  <si>
-    <t>Como realizar viajes con Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:45</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_EyrJ0S7KZo</t>
-  </si>
-  <si>
-    <t>Haz un seguimiento de tus ganancias con Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:39</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dwjYPK7DvRo</t>
-  </si>
-  <si>
-    <t>Recibir tus ganancias con GoPagos de Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:38</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fVGdrWYyJKg</t>
-  </si>
-  <si>
-    <t>go machin compartir vehiculo</t>
-  </si>
-  <si>
-    <t>0:0:35</t>
-  </si>
-  <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nMpdM9hHlGk</t>
+    <t>Numero de comentarios</t>
+  </si>
+  <si>
+    <t>Numero de likes</t>
+  </si>
+  <si>
+    <t>Numero de favoritos</t>
+  </si>
+  <si>
+    <t>El abanico</t>
+  </si>
+  <si>
+    <t>0:0:15</t>
+  </si>
+  <si>
+    <t>14/02/2022</t>
+  </si>
+  <si>
+    <t>tapias jt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UVLlmoT90O0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>El mecánico</t>
+  </si>
+  <si>
+    <t>0:1:8</t>
+  </si>
+  <si>
+    <t>08/02/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uYWWcaSnlXM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>cuando esta en el norte</t>
+  </si>
+  <si>
+    <t>0:0:23</t>
+  </si>
+  <si>
+    <t>20/12/2021</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pWEgskBh0gk</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Todo tenemos un amigo lento</t>
+  </si>
+  <si>
+    <t>0:0:57</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WD9fcdmhyRQ</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Entrevista a tapias jt</t>
+  </si>
+  <si>
+    <t>0:11:30</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gw3XpSgnk9g</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Bromas pesada</t>
+  </si>
+  <si>
+    <t>0:0:29</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=31ctCF-pKao</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>0:0:31</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZREXzsVabGc</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Bromas pesada 5</t>
+  </si>
+  <si>
+    <t>0:1:18</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMRMXkLeFqE</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Bromas pesada 4</t>
+  </si>
+  <si>
+    <t>0:0:17</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NbVWtdRIb3o</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Policía</t>
+  </si>
+  <si>
+    <t>0:0:22</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=puugL0Dd4uE</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Bromas pesada 2</t>
+  </si>
+  <si>
+    <t>0:1:21</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0zeE6AMKWME</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bromas pesada 3</t>
+  </si>
+  <si>
+    <t>0:1:10</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wKcle3iIplE</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Yo después que se acabe la cuarentena</t>
+  </si>
+  <si>
+    <t>0:0:20</t>
+  </si>
+  <si>
+    <t>04/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vLsjh_f8Ayk</t>
+  </si>
+  <si>
+    <t>Clases virtuales</t>
+  </si>
+  <si>
+    <t>0:0:44</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y5jZG9Rf7rc</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Yo voy a salir</t>
+  </si>
+  <si>
+    <t>0:0:18</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7gUDnJ5geUs</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>24/04/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zykkQ3osNIw</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Bromas pesada 1</t>
+  </si>
+  <si>
+    <t>0:0:30</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p4zxLtWqIZw</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>El tiburón</t>
+  </si>
+  <si>
+    <t>0:0:36</t>
+  </si>
+  <si>
+    <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nW7JjCB2Z1s</t>
+  </si>
+  <si>
+    <t>Peleas de hermano</t>
+  </si>
+  <si>
+    <t>0:0:26</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qGlo8dhJKBw</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Como hacer trucos</t>
+  </si>
+  <si>
+    <t>05/12/2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tgsgiW7N_34</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Como actuar sin buscar la cosas</t>
+  </si>
+  <si>
+    <t>0:0:59</t>
+  </si>
+  <si>
+    <t>03/12/2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3KwaiI3GeVM</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -454,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,166 +755,686 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>56</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2021</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1055</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>2021</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>1148</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>940</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1609</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1912</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>1380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>1934</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>1474</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>1501</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>2020</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>2526</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>1778</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>2155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>2214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>2299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -653,6 +1446,20 @@
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
     <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/Avon.xlsx
+++ b/files/Avon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>Titulo</t>
   </si>
@@ -46,94 +46,343 @@
     <t>Numero de favoritos</t>
   </si>
   <si>
-    <t>¿Te imaginas ahorrar cuando viajas? Muy pronto disponible en tu ciudad #Ecuador</t>
-  </si>
-  <si>
-    <t>0:0:21</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
-  </si>
-  <si>
-    <t>Go Machin Tech</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DOiR8d9_sLQ</t>
+    <t>El abanico</t>
+  </si>
+  <si>
+    <t>0:0:15</t>
+  </si>
+  <si>
+    <t>14/02/2022</t>
+  </si>
+  <si>
+    <t>tapias jt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UVLlmoT90O0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Recoger pasajeros con la aplicación Gomachin</t>
-  </si>
-  <si>
-    <t>0:1:17</t>
-  </si>
-  <si>
-    <t>12/03/2021</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JpPR3zQvfDo</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Seguridad con la app de Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:42</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9g_gcZ5Itdc</t>
-  </si>
-  <si>
-    <t>Como realizar viajes con Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:45</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_EyrJ0S7KZo</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Haz un seguimiento de tus ganancias con Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:39</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dwjYPK7DvRo</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Recibir tus ganancias con GoPagos de Gomachin</t>
-  </si>
-  <si>
-    <t>0:0:38</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fVGdrWYyJKg</t>
-  </si>
-  <si>
-    <t>go machin compartir vehiculo</t>
-  </si>
-  <si>
-    <t>0:0:35</t>
-  </si>
-  <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nMpdM9hHlGk</t>
+    <t>El mecánico</t>
+  </si>
+  <si>
+    <t>0:1:8</t>
+  </si>
+  <si>
+    <t>08/02/2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uYWWcaSnlXM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>cuando esta en el norte</t>
+  </si>
+  <si>
+    <t>0:0:23</t>
+  </si>
+  <si>
+    <t>20/12/2021</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pWEgskBh0gk</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Todo tenemos un amigo lento</t>
+  </si>
+  <si>
+    <t>0:0:57</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WD9fcdmhyRQ</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Entrevista a tapias jt</t>
+  </si>
+  <si>
+    <t>0:11:30</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gw3XpSgnk9g</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Bromas pesada</t>
+  </si>
+  <si>
+    <t>0:0:29</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=31ctCF-pKao</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>0:0:31</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZREXzsVabGc</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Bromas pesada 5</t>
+  </si>
+  <si>
+    <t>0:1:18</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMRMXkLeFqE</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Bromas pesada 4</t>
+  </si>
+  <si>
+    <t>0:0:17</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NbVWtdRIb3o</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Policía</t>
+  </si>
+  <si>
+    <t>0:0:22</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=puugL0Dd4uE</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Bromas pesada 2</t>
+  </si>
+  <si>
+    <t>0:1:21</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0zeE6AMKWME</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bromas pesada 3</t>
+  </si>
+  <si>
+    <t>0:1:10</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wKcle3iIplE</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Yo después que se acabe la cuarentena</t>
+  </si>
+  <si>
+    <t>0:0:20</t>
+  </si>
+  <si>
+    <t>04/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vLsjh_f8Ayk</t>
+  </si>
+  <si>
+    <t>Clases virtuales</t>
+  </si>
+  <si>
+    <t>0:0:44</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y5jZG9Rf7rc</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Yo voy a salir</t>
+  </si>
+  <si>
+    <t>0:0:18</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7gUDnJ5geUs</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>24/04/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zykkQ3osNIw</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Bromas pesada 1</t>
+  </si>
+  <si>
+    <t>0:0:30</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p4zxLtWqIZw</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>El tiburón</t>
+  </si>
+  <si>
+    <t>0:0:36</t>
+  </si>
+  <si>
+    <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nW7JjCB2Z1s</t>
+  </si>
+  <si>
+    <t>Peleas de hermano</t>
+  </si>
+  <si>
+    <t>0:0:26</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qGlo8dhJKBw</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Como hacer trucos</t>
+  </si>
+  <si>
+    <t>05/12/2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tgsgiW7N_34</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Como actuar sin buscar la cosas</t>
+  </si>
+  <si>
+    <t>0:0:59</t>
+  </si>
+  <si>
+    <t>03/12/2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3KwaiI3GeVM</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -478,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,13 +770,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -545,199 +794,647 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>2021</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1055</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>2021</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>1148</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>940</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>1609</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>1791</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>2020</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1912</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>1380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>1934</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>1474</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>1501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>2526</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>1778</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>2155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>2214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>2299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +1446,20 @@
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
     <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
